--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A023C793-7D9F-4E25-95DF-3376C6EB4A1B}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C352C8BF-44AD-4060-ABA5-4D58262D51BF}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="5" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="3" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="calificación" sheetId="4" r:id="rId4"/>
     <sheet name="pedidos" sheetId="5" r:id="rId5"/>
     <sheet name="incorrectos" sheetId="6" r:id="rId6"/>
+    <sheet name="pedidos-ra" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="37">
   <si>
     <t>seguidores</t>
   </si>
@@ -149,6 +150,9 @@
   </si>
   <si>
     <t>no completados</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
   </si>
 </sst>
 </file>
@@ -297,11 +301,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:F34" totalsRowShown="0">
-  <autoFilter ref="A1:F34" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G43" totalsRowShown="0">
+  <autoFilter ref="A1:G43" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{044FEE12-A08B-4B51-99F4-5E41EF86D35F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E382312E-8B71-4817-8FB2-1071C946BD49}" name="sucursal"/>
+    <tableColumn id="7" xr3:uid="{F8FB77BF-06BF-4F4B-9C0F-191EDC4BCF05}" name="año"/>
     <tableColumn id="3" xr3:uid="{DE579897-1367-4BD5-89A8-70445A9035B4}" name="mes"/>
     <tableColumn id="4" xr3:uid="{FEED9753-1801-4520-9DB2-FC3B70E6CA50}" name="pedidos"/>
     <tableColumn id="5" xr3:uid="{1622D09B-ACB0-4E2A-99E6-D32430E016BB}" name="ventas" dataCellStyle="Moneda"/>
@@ -320,6 +325,21 @@
     <tableColumn id="3" xr3:uid="{232539D8-CA26-4BB6-B2FA-4CA6A4A7E668}" name="mes"/>
     <tableColumn id="4" xr3:uid="{7BF96060-9238-4F9B-A546-8936F591EB7E}" name="pedidos incorrectos"/>
     <tableColumn id="5" xr3:uid="{405D17E1-C767-42F5-B4EF-5B37DB155AE1}" name="no completados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F23" totalsRowShown="0">
+  <autoFilter ref="A1:F23" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8F2DA8EB-759A-4CE9-959F-F51421847B92}" name="restaurante"/>
+    <tableColumn id="2" xr3:uid="{2A0E4553-08A8-44EE-AF8D-F22B402EFDD1}" name="sucursal"/>
+    <tableColumn id="3" xr3:uid="{BDB5C949-953C-43C1-8A4F-EB7431BAEF56}" name="mes"/>
+    <tableColumn id="4" xr3:uid="{9E059869-0BD6-47BD-9C8D-231ED6E7D17F}" name="pedidos"/>
+    <tableColumn id="5" xr3:uid="{EBC9D04C-7B93-4B19-8A66-701D9F5BE78F}" name="ventas"/>
+    <tableColumn id="6" xr3:uid="{F10B3DD0-3B5C-4DC4-B8C5-ECB3E5D88469}" name="ticket promedio"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1740,20 +1760,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1761,676 +1781,985 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>110</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="13">
         <v>52711</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="13">
         <v>479.19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>2024</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>131</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>62706</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="13">
         <v>478.67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2024</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>144</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="13">
         <v>66971</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="13">
         <v>465.08</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2024</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>107</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>46988</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>439.14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>2024</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>44102</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>441.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>102</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>51834</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G7" s="13">
         <v>508.18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <v>39053</v>
       </c>
-      <c r="F8" s="13">
+      <c r="G8" s="13">
         <v>433.92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>2024</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>94</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="13">
         <v>45354</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G9" s="13">
         <v>482.49</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>2024</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>106</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="13">
         <v>48970</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G10" s="13">
         <v>461.98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>127</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="13">
         <v>55805</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="13">
         <v>439.41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>2024</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>132</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <v>53917</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>408.46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>2024</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>270</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <v>107053</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="13">
         <v>396.49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>2024</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>342</v>
       </c>
-      <c r="E14" s="13">
+      <c r="F14" s="13">
         <v>139857</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G14" s="13">
         <v>408.94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>2024</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>400</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="13">
         <v>161278</v>
       </c>
-      <c r="F15" s="13">
+      <c r="G15" s="13">
         <v>403.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>2024</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>337</v>
       </c>
-      <c r="E16" s="13">
+      <c r="F16" s="13">
         <v>131468</v>
       </c>
-      <c r="F16" s="13">
+      <c r="G16" s="13">
         <v>390.11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>415</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <v>162989</v>
       </c>
-      <c r="F17" s="13">
+      <c r="G17" s="13">
         <v>392.74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>2024</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>446</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="13">
         <v>175057</v>
       </c>
-      <c r="F18" s="13">
+      <c r="G18" s="13">
         <v>392.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>2024</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>353</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F19" s="13">
         <v>142747</v>
       </c>
-      <c r="F19" s="13">
+      <c r="G19" s="13">
         <v>404.38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>2024</v>
+      </c>
+      <c r="D20" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>396</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <v>159382</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G20" s="13">
         <v>402.48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>2024</v>
+      </c>
+      <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>380</v>
       </c>
-      <c r="E21" s="13">
+      <c r="F21" s="13">
         <v>143489</v>
       </c>
-      <c r="F21" s="13">
+      <c r="G21" s="13">
         <v>377.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>2024</v>
+      </c>
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>330</v>
       </c>
-      <c r="E22" s="13">
+      <c r="F22" s="13">
         <v>129793</v>
       </c>
-      <c r="F22" s="13">
+      <c r="G22" s="13">
         <v>393.31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>2024</v>
+      </c>
+      <c r="D23" t="s">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>324</v>
       </c>
-      <c r="E23" s="13">
+      <c r="F23" s="13">
         <v>130519</v>
       </c>
-      <c r="F23" s="13">
+      <c r="G23" s="13">
         <v>402.84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>2024</v>
+      </c>
+      <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>212</v>
       </c>
-      <c r="E24" s="13">
+      <c r="F24" s="13">
         <v>80941</v>
       </c>
-      <c r="F24" s="13">
+      <c r="G24" s="13">
         <v>381.8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>2024</v>
+      </c>
+      <c r="D25" t="s">
         <v>20</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>235</v>
       </c>
-      <c r="E25" s="13">
+      <c r="F25" s="13">
         <v>93757</v>
       </c>
-      <c r="F25" s="13">
+      <c r="G25" s="13">
         <v>398.97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>2024</v>
+      </c>
+      <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>321</v>
       </c>
-      <c r="E26" s="13">
+      <c r="F26" s="13">
         <v>131532</v>
       </c>
-      <c r="F26" s="13">
+      <c r="G26" s="13">
         <v>409.76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>249</v>
       </c>
-      <c r="E27" s="13">
+      <c r="F27" s="13">
         <v>92972</v>
       </c>
-      <c r="F27" s="13">
+      <c r="G27" s="13">
         <v>373.38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>2024</v>
+      </c>
+      <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>284</v>
       </c>
-      <c r="E28" s="13">
+      <c r="F28" s="13">
         <v>104147</v>
       </c>
-      <c r="F28" s="13">
+      <c r="G28" s="13">
         <v>366.71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>2024</v>
+      </c>
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>244</v>
       </c>
-      <c r="E29" s="13">
+      <c r="F29" s="13">
         <v>99797</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G29" s="13">
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>2024</v>
+      </c>
+      <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>245</v>
       </c>
-      <c r="E30" s="13">
+      <c r="F30" s="13">
         <v>92004</v>
       </c>
-      <c r="F30" s="13">
+      <c r="G30" s="13">
         <v>375.53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>2024</v>
+      </c>
+      <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>262</v>
       </c>
-      <c r="E31" s="13">
+      <c r="F31" s="13">
         <v>103507</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="13">
         <v>395.06</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>2024</v>
+      </c>
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>276</v>
       </c>
-      <c r="E32" s="13">
+      <c r="F32" s="13">
         <v>105265</v>
       </c>
-      <c r="F32" s="13">
+      <c r="G32" s="13">
         <v>381.39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>2024</v>
+      </c>
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>231</v>
       </c>
-      <c r="E33" s="13">
+      <c r="F33" s="13">
         <v>86015</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="13">
         <v>372.36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>2024</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>291</v>
       </c>
-      <c r="E34" s="13">
+      <c r="F34" s="13">
         <v>109183</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G34" s="13">
         <v>375.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>2023</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>164</v>
+      </c>
+      <c r="F35" s="13">
+        <v>63757</v>
+      </c>
+      <c r="G35" s="13">
+        <v>388.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>2023</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>192</v>
+      </c>
+      <c r="F36" s="13">
+        <v>80738</v>
+      </c>
+      <c r="G36" s="13">
+        <v>420.51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>2023</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>293</v>
+      </c>
+      <c r="F37" s="13">
+        <v>121177</v>
+      </c>
+      <c r="G37" s="13">
+        <v>413.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>2023</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>322</v>
+      </c>
+      <c r="F38" s="13">
+        <v>137425</v>
+      </c>
+      <c r="G38" s="13">
+        <v>426.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>2023</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1047</v>
+      </c>
+      <c r="G39" s="13">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>2023</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>112</v>
+      </c>
+      <c r="F40" s="13">
+        <v>41970</v>
+      </c>
+      <c r="G40" s="13">
+        <v>374.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>2023</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>142</v>
+      </c>
+      <c r="F41" s="13">
+        <v>52588</v>
+      </c>
+      <c r="G41" s="13">
+        <v>370.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>2023</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>162</v>
+      </c>
+      <c r="F42" s="13">
+        <v>60909</v>
+      </c>
+      <c r="G42" s="13">
+        <v>375.98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>2023</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>295</v>
+      </c>
+      <c r="F43" s="13">
+        <v>121743</v>
+      </c>
+      <c r="G43" s="13">
+        <v>412.69</v>
       </c>
     </row>
   </sheetData>
@@ -2446,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3042,4 +3371,487 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>18253</v>
+      </c>
+      <c r="F2">
+        <v>357.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>32438</v>
+      </c>
+      <c r="F3">
+        <v>327.66000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>34278</v>
+      </c>
+      <c r="F4">
+        <v>364.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>82</v>
+      </c>
+      <c r="E5">
+        <v>34557</v>
+      </c>
+      <c r="F5">
+        <v>421.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>24553</v>
+      </c>
+      <c r="F6">
+        <v>327.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>35352</v>
+      </c>
+      <c r="F7">
+        <v>441.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>33210</v>
+      </c>
+      <c r="F8">
+        <v>381.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>77</v>
+      </c>
+      <c r="E9">
+        <v>30103</v>
+      </c>
+      <c r="F9">
+        <v>390.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>23214</v>
+      </c>
+      <c r="F10">
+        <v>362.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>21785</v>
+      </c>
+      <c r="F11">
+        <v>389.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>27081</v>
+      </c>
+      <c r="F12">
+        <v>330.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>39544</v>
+      </c>
+      <c r="F13">
+        <v>454.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>38546</v>
+      </c>
+      <c r="F14">
+        <v>405.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>19892</v>
+      </c>
+      <c r="F15">
+        <v>320.83999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>23914</v>
+      </c>
+      <c r="F16">
+        <v>373.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+      <c r="E17">
+        <v>32777</v>
+      </c>
+      <c r="F17">
+        <v>420.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>27979</v>
+      </c>
+      <c r="F18">
+        <v>388.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>28350</v>
+      </c>
+      <c r="F19">
+        <v>373.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>21224</v>
+      </c>
+      <c r="F20">
+        <v>359.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21">
+        <v>20146</v>
+      </c>
+      <c r="F21">
+        <v>335.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>27986</v>
+      </c>
+      <c r="F22">
+        <v>354.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>27579</v>
+      </c>
+      <c r="F23">
+        <v>358.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C352C8BF-44AD-4060-ABA5-4D58262D51BF}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC8C517-1A04-40A2-B7FB-F319693B4E25}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="3" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="37">
   <si>
     <t>seguidores</t>
   </si>
@@ -331,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F23" totalsRowShown="0">
-  <autoFilter ref="A1:F23" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F32" totalsRowShown="0">
+  <autoFilter ref="A1:F32" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F2DA8EB-759A-4CE9-959F-F51421847B92}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{2A0E4553-08A8-44EE-AF8D-F22B402EFDD1}" name="sucursal"/>
@@ -3375,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3847,6 +3847,186 @@
         <v>358.17</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>2705</v>
+      </c>
+      <c r="F24">
+        <v>450.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>3395</v>
+      </c>
+      <c r="F25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>6179</v>
+      </c>
+      <c r="F26">
+        <v>411.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>6369</v>
+      </c>
+      <c r="F27">
+        <v>530.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>6505</v>
+      </c>
+      <c r="F28">
+        <v>542.08000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>3780</v>
+      </c>
+      <c r="F29">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>3101</v>
+      </c>
+      <c r="F30">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>2368</v>
+      </c>
+      <c r="F31">
+        <v>394.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>7463</v>
+      </c>
+      <c r="F32">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="664" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC8C517-1A04-40A2-B7FB-F319693B4E25}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71DEDAA-6943-425D-8B61-DCFDE7C2BE1D}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="3" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="37">
   <si>
     <t>seguidores</t>
   </si>
@@ -270,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}" name="Tabla2" displayName="Tabla2" ref="A1:F10" totalsRowShown="0">
-  <autoFilter ref="A1:F10" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}" name="Tabla2" displayName="Tabla2" ref="A1:F16" totalsRowShown="0">
+  <autoFilter ref="A1:F16" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6E805560-BC23-450F-8859-187569640113}" name="restaurante"/>
     <tableColumn id="6" xr3:uid="{421753D9-8A0B-443A-988D-473E2B0A896B}" name="año"/>
@@ -332,7 +332,13 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
+  <autoFilter ref="A1:F32" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Américas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F2DA8EB-759A-4CE9-959F-F51421847B92}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{2A0E4553-08A8-44EE-AF8D-F22B402EFDD1}" name="sucursal"/>
@@ -665,7 +671,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -886,10 +892,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E05E2-E3FE-4964-BE6A-F9503B360B35}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -935,7 +941,7 @@
         <v>1650</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F7" si="0">E2/D2</f>
+        <f t="shared" ref="F2:F5" si="0">E2/D2</f>
         <v>2.0849839456236188E-3</v>
       </c>
     </row>
@@ -1010,17 +1016,17 @@
         <v>2024</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>520672</v>
+        <v>430901</v>
       </c>
       <c r="E6">
-        <v>2902</v>
+        <v>6286</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>5.573566467949112E-3</v>
+        <f t="shared" ref="F6:F11" si="1">E6/D6</f>
+        <v>1.4588037623491243E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1031,17 +1037,17 @@
         <v>2024</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>426673</v>
+        <v>225067</v>
       </c>
       <c r="E7">
-        <v>2096</v>
+        <v>3008</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9124270811605137E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.3364909115952138E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1052,17 +1058,17 @@
         <v>2024</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>990883</v>
+        <v>407275</v>
       </c>
       <c r="E8">
-        <v>4057</v>
+        <v>4104</v>
       </c>
       <c r="F8" s="7">
-        <f>E8/D8</f>
-        <v>4.0943279882690491E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.007672948253637E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1073,17 +1079,17 @@
         <v>2024</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>1340877</v>
+        <v>232839</v>
       </c>
       <c r="E9">
-        <v>8965</v>
+        <v>2968</v>
       </c>
       <c r="F9" s="7">
-        <f>E9/D9</f>
-        <v>6.6859227207268076E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2747005441528266E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1094,16 +1100,142 @@
         <v>2024</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>275882</v>
+      </c>
+      <c r="E10">
+        <v>3213</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1646283556013078E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>285570</v>
+      </c>
+      <c r="E11">
+        <v>3014</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0554329936617993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2024</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>520672</v>
+      </c>
+      <c r="E12">
+        <v>2902</v>
+      </c>
+      <c r="F12" s="7">
+        <f>E12/D12</f>
+        <v>5.573566467949112E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>426673</v>
+      </c>
+      <c r="E13">
+        <v>2096</v>
+      </c>
+      <c r="F13" s="7">
+        <f>E13/D13</f>
+        <v>4.9124270811605137E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>990883</v>
+      </c>
+      <c r="E14">
+        <v>4057</v>
+      </c>
+      <c r="F14" s="7">
+        <f>E14/D14</f>
+        <v>4.0943279882690491E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1340877</v>
+      </c>
+      <c r="E15">
+        <v>8965</v>
+      </c>
+      <c r="F15" s="7">
+        <f>E15/D15</f>
+        <v>6.6859227207268076E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D16">
         <v>1059199</v>
       </c>
-      <c r="E10">
+      <c r="E16">
         <v>6326</v>
       </c>
-      <c r="F10" s="7">
-        <f>E10/D10</f>
+      <c r="F16" s="7">
+        <f>E16/D16</f>
         <v>5.9724376627999084E-3</v>
       </c>
     </row>
@@ -1120,7 +1252,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1762,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1771,6 +1903,13 @@
     <col min="1" max="1" width="11.86328125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -3377,8 +3516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3627,7 +3766,7 @@
         <v>330.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3647,7 +3786,7 @@
         <v>454.53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3806,7 @@
         <v>405.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3687,7 +3826,7 @@
         <v>320.83999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3707,7 +3846,7 @@
         <v>373.66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3727,7 +3866,7 @@
         <v>420.22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3747,7 +3886,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -3767,7 +3906,7 @@
         <v>373.03</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3787,7 +3926,7 @@
         <v>359.73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3807,7 +3946,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3827,7 +3966,7 @@
         <v>354.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3986,7 @@
         <v>358.17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3867,7 +4006,7 @@
         <v>450.83</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3887,7 +4026,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3907,7 +4046,7 @@
         <v>411.93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3927,7 +4066,7 @@
         <v>530.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +4086,7 @@
         <v>542.08000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3967,7 +4106,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3987,7 +4126,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4007,7 +4146,7 @@
         <v>394.67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="725" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71DEDAA-6943-425D-8B61-DCFDE7C2BE1D}"/>
+  <xr:revisionPtr revIDLastSave="884" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E240081-9D09-4B8A-884D-1EE6DECBCCE0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -154,6 +154,9 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>Altacia</t>
+  </si>
 </sst>
 </file>
 
@@ -235,9 +238,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,21 +263,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}" name="Tabla1" displayName="Tabla1" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}" name="Tabla1" displayName="Tabla1" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{088D457F-954E-4EB4-8A12-83A044B1DE56}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{7DF22D7F-F564-4064-9EC3-BE19BFC7BFC7}" name="mes"/>
     <tableColumn id="3" xr3:uid="{2B4B9D2C-F19D-4A78-A259-2532794C9E5A}" name="red_social"/>
-    <tableColumn id="4" xr3:uid="{06228D91-8F83-4E42-97DC-B3D33A58C0AE}" name="seguidores"/>
+    <tableColumn id="4" xr3:uid="{06228D91-8F83-4E42-97DC-B3D33A58C0AE}" name="seguidores" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}" name="Tabla2" displayName="Tabla2" ref="A1:F16" totalsRowShown="0">
-  <autoFilter ref="A1:F16" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}" name="Tabla2" displayName="Tabla2" ref="A1:F18" totalsRowShown="0">
+  <autoFilter ref="A1:F18" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6E805560-BC23-450F-8859-187569640113}" name="restaurante"/>
     <tableColumn id="6" xr3:uid="{421753D9-8A0B-443A-988D-473E2B0A896B}" name="año"/>
@@ -287,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:E34" totalsRowShown="0">
-  <autoFilter ref="A1:E34" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:E39" totalsRowShown="0">
+  <autoFilter ref="A1:E39" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{61194B37-DF94-4230-B078-9F2850815A72}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{534ACBBA-EA46-4185-9ADA-BB6E85CFD4BF}" name="sucursal"/>
@@ -301,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G43" totalsRowShown="0">
-  <autoFilter ref="A1:G43" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G46" totalsRowShown="0">
+  <autoFilter ref="A1:G46" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{044FEE12-A08B-4B51-99F4-5E41EF86D35F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E382312E-8B71-4817-8FB2-1071C946BD49}" name="sucursal"/>
@@ -317,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:E34" totalsRowShown="0">
-  <autoFilter ref="A1:E34" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:E37" totalsRowShown="0">
+  <autoFilter ref="A1:E37" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ECEAB683-9728-463C-AFC7-FAC9BC119F18}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E19E39BD-8287-47C6-8491-ECF51CACC2D6}" name="sucursal"/>
@@ -332,13 +338,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Américas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F32" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F2DA8EB-759A-4CE9-959F-F51421847B92}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{2A0E4553-08A8-44EE-AF8D-F22B402EFDD1}" name="sucursal"/>
@@ -668,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1C918-1F68-4872-855A-DB76E607045D}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="127" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -704,13 +704,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>3728</v>
+        <v>3723</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -722,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>289</v>
+        <v>3725</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="G4" s="2"/>
       <c r="J4" s="1"/>
@@ -750,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>289</v>
+        <v>3779</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -765,13 +765,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>3782</v>
+        <v>3835</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -780,13 +780,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -795,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>3838</v>
+        <v>269</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -810,28 +810,85 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>10871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11006</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>11102</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -842,9 +899,18 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>11199</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -855,9 +921,18 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>11262</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -867,10 +942,19 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>11318</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -880,6 +964,230 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>11379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>11440</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>11565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>11662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>5487</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -892,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E05E2-E3FE-4964-BE6A-F9503B360B35}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1151,7 +1459,7 @@
         <v>2902</v>
       </c>
       <c r="F12" s="7">
-        <f>E12/D12</f>
+        <f t="shared" ref="F12:F18" si="2">E12/D12</f>
         <v>5.573566467949112E-3</v>
       </c>
     </row>
@@ -1172,7 +1480,7 @@
         <v>2096</v>
       </c>
       <c r="F13" s="7">
-        <f>E13/D13</f>
+        <f t="shared" si="2"/>
         <v>4.9124270811605137E-3</v>
       </c>
     </row>
@@ -1193,7 +1501,7 @@
         <v>4057</v>
       </c>
       <c r="F14" s="7">
-        <f>E14/D14</f>
+        <f t="shared" si="2"/>
         <v>4.0943279882690491E-3</v>
       </c>
     </row>
@@ -1214,7 +1522,7 @@
         <v>8965</v>
       </c>
       <c r="F15" s="7">
-        <f>E15/D15</f>
+        <f t="shared" si="2"/>
         <v>6.6859227207268076E-3</v>
       </c>
     </row>
@@ -1235,8 +1543,50 @@
         <v>6326</v>
       </c>
       <c r="F16" s="7">
-        <f>E16/D16</f>
+        <f t="shared" si="2"/>
         <v>5.9724376627999084E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>1293873</v>
+      </c>
+      <c r="E17">
+        <v>4047</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1278185726110676E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1445865</v>
+      </c>
+      <c r="E18">
+        <v>4817</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3315696832000221E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1249,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F24F8-171B-4993-B13B-5AF26369FC75}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1852,6 +2202,91 @@
         <v>0.49305555555555558</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.14305555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.10208333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2.1555555555555554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="E39" s="11">
+        <v>2.2847222222222223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1865,9 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479E25A-D2BE-4554-9735-0696B5B480C0}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1892,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2901,6 +3334,75 @@
         <v>412.69</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>2024</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>173</v>
+      </c>
+      <c r="F44" s="13">
+        <v>86708</v>
+      </c>
+      <c r="G44" s="13">
+        <v>501.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>2024</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>413</v>
+      </c>
+      <c r="F45" s="13">
+        <v>179341</v>
+      </c>
+      <c r="G45" s="13">
+        <v>434.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>2024</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>368</v>
+      </c>
+      <c r="F46" s="13">
+        <v>148630</v>
+      </c>
+      <c r="G46" s="13">
+        <v>403.89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2912,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3500,6 +4002,57 @@
         <v>0</v>
       </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
     </row>
@@ -3516,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3766,7 +4319,7 @@
         <v>330.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3786,7 +4339,7 @@
         <v>454.53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -3806,7 +4359,7 @@
         <v>405.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3826,7 +4379,7 @@
         <v>320.83999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3846,7 +4399,7 @@
         <v>373.66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3866,7 +4419,7 @@
         <v>420.22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3886,7 +4439,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -3906,7 +4459,7 @@
         <v>373.03</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +4479,7 @@
         <v>359.73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3946,7 +4499,7 @@
         <v>335.77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3966,7 +4519,7 @@
         <v>354.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -3986,7 +4539,7 @@
         <v>358.17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +4559,7 @@
         <v>450.83</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4026,7 +4579,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4046,7 +4599,7 @@
         <v>411.93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4066,7 +4619,7 @@
         <v>530.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4086,7 +4639,7 @@
         <v>542.08000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4106,7 +4659,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4126,7 +4679,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4146,7 +4699,7 @@
         <v>394.67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="884" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E240081-9D09-4B8A-884D-1EE6DECBCCE0}"/>
+  <xr:revisionPtr revIDLastSave="893" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508BB5CA-A782-4862-B34E-603277723C92}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -256,10 +256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1C918-1F68-4872-855A-DB76E607045D}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="127" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="893" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{508BB5CA-A782-4862-B34E-603277723C92}"/>
+  <xr:revisionPtr revIDLastSave="910" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D063606-0293-4D31-8F27-4735A487EF89}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -258,6 +258,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}" name="Tabla1" displayName="Tabla1" ref="A1:D33" totalsRowShown="0">
   <autoFilter ref="A1:D33" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}"/>
@@ -333,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F35" totalsRowShown="0">
+  <autoFilter ref="A1:F35" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8F2DA8EB-759A-4CE9-959F-F51421847B92}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{2A0E4553-08A8-44EE-AF8D-F22B402EFDD1}" name="sucursal"/>
@@ -666,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1C918-1F68-4872-855A-DB76E607045D}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+    <sheetView zoomScale="127" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -4063,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4715,6 +4719,66 @@
         <v>439</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>84</v>
+      </c>
+      <c r="E33">
+        <v>32758</v>
+      </c>
+      <c r="F33">
+        <v>389.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>28658</v>
+      </c>
+      <c r="F34">
+        <v>427.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>8974</v>
+      </c>
+      <c r="F35">
+        <v>390.17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="910" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D063606-0293-4D31-8F27-4735A487EF89}"/>
+  <xr:revisionPtr revIDLastSave="1064" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF61409C-9189-4C02-BF3B-492D9D6F340A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="5" activeTab="5" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -293,12 +293,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:E39" totalsRowShown="0">
-  <autoFilter ref="A1:E39" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F45" totalsRowShown="0">
+  <autoFilter ref="A1:F45" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{61194B37-DF94-4230-B078-9F2850815A72}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{534ACBBA-EA46-4185-9ADA-BB6E85CFD4BF}" name="sucursal"/>
     <tableColumn id="3" xr3:uid="{F349A8B3-8BC1-4F4A-AFAF-03688B6D4466}" name="mes"/>
+    <tableColumn id="6" xr3:uid="{55CBCA66-66EB-421D-B201-F7C07DAA5BB8}" name="año"/>
     <tableColumn id="4" xr3:uid="{C1473133-FD76-4E60-A815-85D351F45F4F}" name="tasa en línea" dataCellStyle="Porcentaje"/>
     <tableColumn id="5" xr3:uid="{AE9DDD8B-F05F-4CA7-BE93-9FC34C115EC4}" name="sin conexión"/>
   </tableColumns>
@@ -307,8 +308,21 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G46" totalsRowShown="0">
-  <autoFilter ref="A1:G46" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}" name="Tabla7" displayName="Tabla7" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A423FA7A-F346-4805-88A5-8D51EC781C1D}" name="restaurante"/>
+    <tableColumn id="2" xr3:uid="{42C30810-6AB4-4BEC-BC8A-30201B322A08}" name="sucursal"/>
+    <tableColumn id="3" xr3:uid="{D78A5AA0-E2E3-4FA8-806F-7C3D9D3A278F}" name="mes"/>
+    <tableColumn id="4" xr3:uid="{8D9EFE77-0CFE-4C05-9DB1-FB19CEBF8701}" name="calificación"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G52" totalsRowShown="0">
+  <autoFilter ref="A1:G52" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{044FEE12-A08B-4B51-99F4-5E41EF86D35F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E382312E-8B71-4817-8FB2-1071C946BD49}" name="sucursal"/>
@@ -322,13 +336,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:E37" totalsRowShown="0">
-  <autoFilter ref="A1:E37" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
-  <tableColumns count="5">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F43" totalsRowShown="0">
+  <autoFilter ref="A1:F43" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ECEAB683-9728-463C-AFC7-FAC9BC119F18}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E19E39BD-8287-47C6-8491-ECF51CACC2D6}" name="sucursal"/>
     <tableColumn id="3" xr3:uid="{232539D8-CA26-4BB6-B2FA-4CA6A4A7E668}" name="mes"/>
+    <tableColumn id="6" xr3:uid="{9D628479-AC0F-4F6A-9183-14AB788C3821}" name="año"/>
     <tableColumn id="4" xr3:uid="{7BF96060-9238-4F9B-A546-8936F591EB7E}" name="pedidos incorrectos"/>
     <tableColumn id="5" xr3:uid="{405D17E1-C767-42F5-B4EF-5B37DB155AE1}" name="no completados"/>
   </tableColumns>
@@ -336,7 +351,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F35" totalsRowShown="0">
   <autoFilter ref="A1:F35" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
   <tableColumns count="6">
@@ -670,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1C918-1F68-4872-855A-DB76E607045D}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A16" zoomScale="127" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1599,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F24F8-171B-4993-B13B-5AF26369FC75}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1624,7 +1639,7 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1635,13 +1650,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1651,14 +1669,17 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="12">
         <v>0.93</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="9">
         <v>0.77569444444444446</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1668,14 +1689,17 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="12">
         <v>0.96</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1685,14 +1709,17 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="12">
         <v>0.99</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>9.6527777777777782E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1702,14 +1729,17 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5">
+        <v>2024</v>
+      </c>
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1719,14 +1749,17 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6">
+        <v>2024</v>
+      </c>
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1736,14 +1769,17 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="12">
         <v>0.99</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>8.0555555555555561E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1753,14 +1789,17 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1770,14 +1809,17 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1787,14 +1829,17 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10">
+        <v>2024</v>
+      </c>
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1804,14 +1849,17 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1821,14 +1869,17 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>1.3888888888888889E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1838,14 +1889,17 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="12">
         <v>0.93</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>0.77361111111111114</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1855,14 +1909,17 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14">
+        <v>2024</v>
+      </c>
+      <c r="E14" s="12">
         <v>0.98</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>0.18611111111111112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1872,14 +1929,17 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15" s="12">
         <v>0.99</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <v>0.16944444444444445</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1889,14 +1949,17 @@
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16">
+        <v>2024</v>
+      </c>
+      <c r="E16" s="12">
         <v>0.99</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <v>0.10138888888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1906,14 +1969,17 @@
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17">
+        <v>2024</v>
+      </c>
+      <c r="E17" s="12">
         <v>0.99</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1923,14 +1989,17 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="12">
         <v>0.99</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="9">
         <v>9.166666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1940,14 +2009,17 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="12">
         <v>0.99</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <v>0.1076388888888889</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1957,14 +2029,17 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="12">
         <v>0.99</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>6.3888888888888884E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1974,14 +2049,17 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21" s="12">
         <v>0.99</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="9">
         <v>0.12222222222222222</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1991,14 +2069,17 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="12">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="9">
         <v>4.3749999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2008,14 +2089,17 @@
       <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <v>3.2638888888888891E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2025,14 +2109,17 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24">
+        <v>2024</v>
+      </c>
+      <c r="E24" s="12">
         <v>0.76</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>2.5847222222222221</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2042,14 +2129,17 @@
       <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="12">
         <v>0.79</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>2.1027777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2059,14 +2149,17 @@
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="12">
         <v>0.82</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>1.8347222222222221</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2076,14 +2169,17 @@
       <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27">
+        <v>2024</v>
+      </c>
+      <c r="E27" s="12">
         <v>0.79</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <v>2.1645833333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2093,14 +2189,17 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28">
+        <v>2024</v>
+      </c>
+      <c r="E28" s="12">
         <v>0.78</v>
       </c>
-      <c r="E28" s="11">
+      <c r="F28" s="11">
         <v>2.2652777777777779</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2110,14 +2209,17 @@
       <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="12">
         <v>0.91</v>
       </c>
-      <c r="E29" s="9">
+      <c r="F29" s="9">
         <v>0.77222222222222225</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2127,14 +2229,17 @@
       <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="12">
         <v>0.89</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F30" s="9">
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2144,14 +2249,17 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="12">
         <v>0.94</v>
       </c>
-      <c r="E31" s="9">
+      <c r="F31" s="9">
         <v>0.53680555555555554</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2161,14 +2269,17 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="12">
         <v>0.97</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
         <v>0.26111111111111113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2178,14 +2289,17 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="12">
         <v>0.97</v>
       </c>
-      <c r="E33" s="9">
+      <c r="F33" s="9">
         <v>0.27361111111111114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2195,14 +2309,17 @@
       <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34" s="12">
         <v>0.96</v>
       </c>
-      <c r="E34" s="9">
+      <c r="F34" s="9">
         <v>0.49305555555555558</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2212,14 +2329,17 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35" s="12">
         <v>0.96</v>
       </c>
-      <c r="E35" s="9">
+      <c r="F35" s="9">
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2229,14 +2349,17 @@
       <c r="C36" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36" s="12">
         <v>0.99</v>
       </c>
-      <c r="E36" s="9">
+      <c r="F36" s="9">
         <v>0.14305555555555555</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2246,14 +2369,17 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37" s="12">
         <v>0.99</v>
       </c>
-      <c r="E37" s="9">
+      <c r="F37" s="9">
         <v>0.10208333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2263,14 +2389,17 @@
       <c r="C38" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38">
+        <v>2024</v>
+      </c>
+      <c r="E38" s="12">
         <v>0.6</v>
       </c>
-      <c r="E38" s="11">
+      <c r="F38" s="11">
         <v>2.1555555555555554</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2280,11 +2409,134 @@
       <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39">
+        <v>2024</v>
+      </c>
+      <c r="E39" s="12">
         <v>0.54</v>
       </c>
-      <c r="E39" s="11">
+      <c r="F39" s="11">
         <v>2.2847222222222223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0.23680555555555555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="F41" s="11">
+        <v>2.2847222222222223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.75972222222222219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0.23402777777777778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.30138888888888887</v>
       </c>
     </row>
   </sheetData>
@@ -2298,11 +2550,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479E25A-D2BE-4554-9735-0696B5B480C0}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -2318,17 +2576,62 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3403,6 +3706,144 @@
         <v>403.89</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>2024</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1506</v>
+      </c>
+      <c r="G47" s="13">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>2025</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48" s="13">
+        <v>7276</v>
+      </c>
+      <c r="G48" s="13">
+        <v>382.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>2024</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" s="13">
+        <v>3389</v>
+      </c>
+      <c r="G49" s="13">
+        <v>564.83000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>2025</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50" s="13">
+        <v>4743</v>
+      </c>
+      <c r="G50" s="13">
+        <v>395.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>379</v>
+      </c>
+      <c r="F51" s="13">
+        <v>156174</v>
+      </c>
+      <c r="G51" s="13">
+        <v>412.07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>273</v>
+      </c>
+      <c r="F52" s="13">
+        <v>98449</v>
+      </c>
+      <c r="G52" s="13">
+        <v>360.62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3427,7 +3868,7 @@
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3438,13 +3879,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3455,13 +3899,16 @@
         <v>21</v>
       </c>
       <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3472,13 +3919,16 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3489,13 +3939,16 @@
         <v>22</v>
       </c>
       <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3506,13 +3959,16 @@
         <v>23</v>
       </c>
       <c r="D5">
+        <v>2024</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -3523,13 +3979,16 @@
         <v>24</v>
       </c>
       <c r="D6">
+        <v>2024</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3540,13 +3999,16 @@
         <v>25</v>
       </c>
       <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -3557,13 +4019,16 @@
         <v>15</v>
       </c>
       <c r="D8">
+        <v>2024</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3574,13 +4039,16 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <v>2024</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -3591,13 +4059,16 @@
         <v>8</v>
       </c>
       <c r="D10">
+        <v>2024</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3608,13 +4079,16 @@
         <v>9</v>
       </c>
       <c r="D11">
+        <v>2024</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -3625,13 +4099,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3642,13 +4119,16 @@
         <v>21</v>
       </c>
       <c r="D13">
+        <v>2024</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3659,13 +4139,16 @@
         <v>20</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3676,13 +4159,16 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3693,13 +4179,16 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3710,13 +4199,16 @@
         <v>24</v>
       </c>
       <c r="D17">
+        <v>2024</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3727,13 +4219,16 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>2024</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -3744,13 +4239,16 @@
         <v>15</v>
       </c>
       <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -3761,13 +4259,16 @@
         <v>5</v>
       </c>
       <c r="D20">
+        <v>2024</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3778,13 +4279,16 @@
         <v>8</v>
       </c>
       <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3795,13 +4299,16 @@
         <v>9</v>
       </c>
       <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3812,13 +4319,16 @@
         <v>10</v>
       </c>
       <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3829,13 +4339,16 @@
         <v>21</v>
       </c>
       <c r="D24">
+        <v>2024</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3846,13 +4359,16 @@
         <v>20</v>
       </c>
       <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3863,13 +4379,16 @@
         <v>22</v>
       </c>
       <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3880,13 +4399,16 @@
         <v>23</v>
       </c>
       <c r="D27">
+        <v>2024</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3897,13 +4419,16 @@
         <v>24</v>
       </c>
       <c r="D28">
+        <v>2024</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3914,13 +4439,16 @@
         <v>25</v>
       </c>
       <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3931,13 +4459,16 @@
         <v>15</v>
       </c>
       <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3948,13 +4479,16 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2024</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3965,13 +4499,16 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3982,13 +4519,16 @@
         <v>9</v>
       </c>
       <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3999,13 +4539,16 @@
         <v>10</v>
       </c>
       <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4016,13 +4559,16 @@
         <v>36</v>
       </c>
       <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4033,13 +4579,16 @@
         <v>36</v>
       </c>
       <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4050,10 +4599,133 @@
         <v>36</v>
       </c>
       <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4069,7 +4741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1064" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF61409C-9189-4C02-BF3B-492D9D6F340A}"/>
+  <xr:revisionPtr revIDLastSave="1072" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2513521-4317-49D1-9C02-F359563CBA11}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="5" activeTab="5" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="1" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -276,8 +276,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}" name="Tabla2" displayName="Tabla2" ref="A1:F18" totalsRowShown="0">
-  <autoFilter ref="A1:F18" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}" name="Tabla2" displayName="Tabla2" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{C6F786ED-17DF-4E6E-80F9-F4B2B2C29226}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6E805560-BC23-450F-8859-187569640113}" name="restaurante"/>
     <tableColumn id="6" xr3:uid="{421753D9-8A0B-443A-988D-473E2B0A896B}" name="año"/>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1C918-1F68-4872-855A-DB76E607045D}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="127" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A22" zoomScale="127" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1215,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E05E2-E3FE-4964-BE6A-F9503B360B35}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1602,6 +1602,45 @@
       <c r="F18" s="7">
         <f t="shared" si="2"/>
         <v>3.3315696832000221E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1172083</v>
+      </c>
+      <c r="E19">
+        <v>4892</v>
+      </c>
+      <c r="F19" s="7">
+        <f>E19/D19</f>
+        <v>4.17376585105321E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>5036</v>
+      </c>
+      <c r="F20" s="7" t="e">
+        <f>E20/D20</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1072" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2513521-4317-49D1-9C02-F359563CBA11}"/>
+  <xr:revisionPtr revIDLastSave="1092" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA2104E-F7A9-4C0D-BB3A-1B1041CD0D75}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="1" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -352,12 +352,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}" name="Tabla6" displayName="Tabla6" ref="A1:G37" totalsRowShown="0">
+  <autoFilter ref="A1:G37" xr:uid="{C180C4E5-37DE-4ED4-BE21-1ADC6C411995}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8F2DA8EB-759A-4CE9-959F-F51421847B92}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{2A0E4553-08A8-44EE-AF8D-F22B402EFDD1}" name="sucursal"/>
     <tableColumn id="3" xr3:uid="{BDB5C949-953C-43C1-8A4F-EB7431BAEF56}" name="mes"/>
+    <tableColumn id="7" xr3:uid="{D0FF7D35-8B7C-4BCD-AEF5-F04EA310B2D7}" name="año"/>
     <tableColumn id="4" xr3:uid="{9E059869-0BD6-47BD-9C8D-231ED6E7D17F}" name="pedidos"/>
     <tableColumn id="5" xr3:uid="{EBC9D04C-7B93-4B19-8A66-701D9F5BE78F}" name="ventas"/>
     <tableColumn id="6" xr3:uid="{F10B3DD0-3B5C-4DC4-B8C5-ECB3E5D88469}" name="ticket promedio"/>
@@ -1217,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E05E2-E3FE-4964-BE6A-F9503B360B35}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4778,19 +4779,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4801,16 +4802,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4821,16 +4825,19 @@
         <v>21</v>
       </c>
       <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2">
         <v>51</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>18253</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>357.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4841,16 +4848,19 @@
         <v>20</v>
       </c>
       <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3">
         <v>99</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>32438</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>327.66000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4861,16 +4871,19 @@
         <v>22</v>
       </c>
       <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4">
         <v>94</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>34278</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>364.66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4881,16 +4894,19 @@
         <v>23</v>
       </c>
       <c r="D5">
+        <v>2024</v>
+      </c>
+      <c r="E5">
         <v>82</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>34557</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>421.43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4901,16 +4917,19 @@
         <v>24</v>
       </c>
       <c r="D6">
+        <v>2024</v>
+      </c>
+      <c r="E6">
         <v>75</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>24553</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>327.37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4921,16 +4940,19 @@
         <v>25</v>
       </c>
       <c r="D7">
+        <v>2024</v>
+      </c>
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35352</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>441.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4941,16 +4963,19 @@
         <v>15</v>
       </c>
       <c r="D8">
+        <v>2024</v>
+      </c>
+      <c r="E8">
         <v>87</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>33210</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>381.72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4961,16 +4986,19 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <v>2024</v>
+      </c>
+      <c r="E9">
         <v>77</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>30103</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>390.95</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4981,16 +5009,19 @@
         <v>8</v>
       </c>
       <c r="D10">
+        <v>2024</v>
+      </c>
+      <c r="E10">
         <v>64</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23214</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>362.72</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5001,16 +5032,19 @@
         <v>9</v>
       </c>
       <c r="D11">
+        <v>2024</v>
+      </c>
+      <c r="E11">
         <v>56</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>21785</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>389.02</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5021,16 +5055,19 @@
         <v>10</v>
       </c>
       <c r="D12">
+        <v>2024</v>
+      </c>
+      <c r="E12">
         <v>82</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>27081</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>330.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5041,16 +5078,19 @@
         <v>21</v>
       </c>
       <c r="D13">
+        <v>2024</v>
+      </c>
+      <c r="E13">
         <v>87</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>39544</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>454.53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5061,16 +5101,19 @@
         <v>20</v>
       </c>
       <c r="D14">
+        <v>2024</v>
+      </c>
+      <c r="E14">
         <v>95</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>38546</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>405.75</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5081,16 +5124,19 @@
         <v>22</v>
       </c>
       <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15">
         <v>62</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>19892</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>320.83999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5101,16 +5147,19 @@
         <v>23</v>
       </c>
       <c r="D16">
+        <v>2024</v>
+      </c>
+      <c r="E16">
         <v>64</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>23914</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>373.66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5121,16 +5170,19 @@
         <v>24</v>
       </c>
       <c r="D17">
+        <v>2024</v>
+      </c>
+      <c r="E17">
         <v>78</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>32777</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>420.22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -5141,16 +5193,19 @@
         <v>25</v>
       </c>
       <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
         <v>72</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>27979</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>388.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -5161,16 +5216,19 @@
         <v>15</v>
       </c>
       <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19">
         <v>76</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>28350</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>373.03</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5181,16 +5239,19 @@
         <v>5</v>
       </c>
       <c r="D20">
+        <v>2024</v>
+      </c>
+      <c r="E20">
         <v>59</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>21224</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>359.73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -5201,16 +5262,19 @@
         <v>8</v>
       </c>
       <c r="D21">
+        <v>2024</v>
+      </c>
+      <c r="E21">
         <v>60</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>20146</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>335.77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -5221,16 +5285,19 @@
         <v>9</v>
       </c>
       <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22">
         <v>79</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>27986</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>354.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5241,16 +5308,19 @@
         <v>10</v>
       </c>
       <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23">
         <v>77</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>27579</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>358.17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -5261,16 +5331,19 @@
         <v>22</v>
       </c>
       <c r="D24">
+        <v>2024</v>
+      </c>
+      <c r="E24">
         <v>6</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2705</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>450.83</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -5281,16 +5354,19 @@
         <v>23</v>
       </c>
       <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25">
         <v>7</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3395</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -5301,16 +5377,19 @@
         <v>24</v>
       </c>
       <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26">
         <v>15</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>6179</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>411.93</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -5321,16 +5400,19 @@
         <v>25</v>
       </c>
       <c r="D27">
+        <v>2024</v>
+      </c>
+      <c r="E27">
         <v>12</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>6369</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>530.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5341,16 +5423,19 @@
         <v>15</v>
       </c>
       <c r="D28">
+        <v>2024</v>
+      </c>
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>6505</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>542.08000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -5361,16 +5446,19 @@
         <v>5</v>
       </c>
       <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3780</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5381,16 +5469,19 @@
         <v>8</v>
       </c>
       <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30">
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3101</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5401,16 +5492,19 @@
         <v>9</v>
       </c>
       <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31">
         <v>6</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2368</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>394.67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5421,16 +5515,19 @@
         <v>10</v>
       </c>
       <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32">
         <v>17</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>7463</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -5441,16 +5538,19 @@
         <v>36</v>
       </c>
       <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33">
         <v>84</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>32758</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>389.98</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -5461,16 +5561,19 @@
         <v>36</v>
       </c>
       <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34">
         <v>67</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>28658</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>427.73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -5481,13 +5584,62 @@
         <v>36</v>
       </c>
       <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35">
         <v>23</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>8974</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>390.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
+      </c>
+      <c r="E36">
+        <v>68</v>
+      </c>
+      <c r="F36">
+        <v>21842</v>
+      </c>
+      <c r="G36">
+        <v>321.20999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="F37">
+        <v>23753</v>
+      </c>
+      <c r="G37">
+        <v>395.88</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1092" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FA2104E-F7A9-4C0D-BB3A-1B1041CD0D75}"/>
+  <xr:revisionPtr revIDLastSave="1192" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6DCC87C-87D4-4A00-8250-C0CA8564A0B0}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="5" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -258,10 +258,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}" name="Tabla1" displayName="Tabla1" ref="A1:D33" totalsRowShown="0">
   <autoFilter ref="A1:D33" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}"/>
@@ -293,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F45" totalsRowShown="0">
-  <autoFilter ref="A1:F45" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F50" totalsRowShown="0">
+  <autoFilter ref="A1:F50" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{61194B37-DF94-4230-B078-9F2850815A72}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{534ACBBA-EA46-4185-9ADA-BB6E85CFD4BF}" name="sucursal"/>
@@ -321,8 +317,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G57" totalsRowShown="0">
+  <autoFilter ref="A1:G57" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{044FEE12-A08B-4B51-99F4-5E41EF86D35F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E382312E-8B71-4817-8FB2-1071C946BD49}" name="sucursal"/>
@@ -337,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F43" totalsRowShown="0">
-  <autoFilter ref="A1:F43" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F48" totalsRowShown="0">
+  <autoFilter ref="A1:F48" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ECEAB683-9728-463C-AFC7-FAC9BC119F18}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E19E39BD-8287-47C6-8491-ECF51CACC2D6}" name="sucursal"/>
@@ -686,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C1C918-1F68-4872-855A-DB76E607045D}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="127" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A25" zoomScale="127" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1218,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E05E2-E3FE-4964-BE6A-F9503B360B35}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1654,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F24F8-171B-4993-B13B-5AF26369FC75}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2579,6 +2575,106 @@
         <v>0.30138888888888887</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.59236111111111112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0.37291666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.27986111111111112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>2025</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.28125</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2593,7 +2689,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2668,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3884,6 +3980,121 @@
         <v>360.62</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>168</v>
+      </c>
+      <c r="F53" s="13">
+        <v>84941</v>
+      </c>
+      <c r="G53" s="13">
+        <v>505.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13">
+        <v>12072</v>
+      </c>
+      <c r="G54" s="13">
+        <v>603.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>32</v>
+      </c>
+      <c r="F55" s="13">
+        <v>12898</v>
+      </c>
+      <c r="G55" s="13">
+        <v>403.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>2025</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>384</v>
+      </c>
+      <c r="F56" s="13">
+        <v>157243</v>
+      </c>
+      <c r="G56" s="13">
+        <v>409.49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>2025</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>373</v>
+      </c>
+      <c r="F57" s="13">
+        <v>140660</v>
+      </c>
+      <c r="G57" s="13">
+        <v>377.1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3895,10 +4106,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4765,6 +4976,106 @@
         <v>3</v>
       </c>
       <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
         <v>0</v>
       </c>
     </row>
@@ -4781,8 +5092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1192" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6DCC87C-87D4-4A00-8250-C0CA8564A0B0}"/>
+  <xr:revisionPtr revIDLastSave="1288" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E4CB0B-E5FA-4889-94A6-4DB713207870}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" firstSheet="5" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -258,6 +258,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}" name="Tabla1" displayName="Tabla1" ref="A1:D33" totalsRowShown="0">
   <autoFilter ref="A1:D33" xr:uid="{63E6FCEF-35B9-476B-847A-90ED9893E563}"/>
@@ -289,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F50" totalsRowShown="0">
-  <autoFilter ref="A1:F50" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F55" totalsRowShown="0">
+  <autoFilter ref="A1:F55" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{61194B37-DF94-4230-B078-9F2850815A72}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{534ACBBA-EA46-4185-9ADA-BB6E85CFD4BF}" name="sucursal"/>
@@ -304,8 +308,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}" name="Tabla7" displayName="Tabla7" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}" name="Tabla7" displayName="Tabla7" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A423FA7A-F346-4805-88A5-8D51EC781C1D}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{42C30810-6AB4-4BEC-BC8A-30201B322A08}" name="sucursal"/>
@@ -317,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G57" totalsRowShown="0">
-  <autoFilter ref="A1:G57" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G62" totalsRowShown="0">
+  <autoFilter ref="A1:G62" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{044FEE12-A08B-4B51-99F4-5E41EF86D35F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E382312E-8B71-4817-8FB2-1071C946BD49}" name="sucursal"/>
@@ -333,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F48" totalsRowShown="0">
-  <autoFilter ref="A1:F48" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F52" totalsRowShown="0">
+  <autoFilter ref="A1:F52" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ECEAB683-9728-463C-AFC7-FAC9BC119F18}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E19E39BD-8287-47C6-8491-ECF51CACC2D6}" name="sucursal"/>
@@ -1650,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F24F8-171B-4993-B13B-5AF26369FC75}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2675,6 +2679,106 @@
         <v>0.28125</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.30625000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0.65416666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.41944444444444445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.12083333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,10 +2790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479E25A-D2BE-4554-9735-0696B5B480C0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2754,6 +2858,62 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2764,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4095,6 +4255,121 @@
         <v>377.1</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>2025</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58">
+        <v>188</v>
+      </c>
+      <c r="F58" s="13">
+        <v>97090</v>
+      </c>
+      <c r="G58" s="13">
+        <v>516.44000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59">
+        <v>2025</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="F59" s="13">
+        <v>8247.42</v>
+      </c>
+      <c r="G59" s="13">
+        <v>434.07</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60">
+        <v>2025</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>47</v>
+      </c>
+      <c r="F60" s="13">
+        <v>17817.11</v>
+      </c>
+      <c r="G60" s="13">
+        <v>379.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>2025</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>367</v>
+      </c>
+      <c r="F61" s="13">
+        <v>156084</v>
+      </c>
+      <c r="G61" s="13">
+        <v>425.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>2025</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>372</v>
+      </c>
+      <c r="F62" s="13">
+        <v>153383.44</v>
+      </c>
+      <c r="G62" s="13">
+        <v>412.32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4106,10 +4381,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5076,6 +5351,86 @@
         <v>3</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>2025</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>0</v>
       </c>
     </row>
@@ -5092,8 +5447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/datasets/metricas restaurantes.xlsx
+++ b/datasets/metricas restaurantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1288" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71E4CB0B-E5FA-4889-94A6-4DB713207870}"/>
+  <xr:revisionPtr revIDLastSave="1405" documentId="8_{4A508BF4-579E-4DD0-9804-147C79BB8684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B860F04-84EA-4428-9E65-E45234CB7E04}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{D6DD3B01-6CC0-4461-82E6-6E4C97BECF2E}"/>
   </bookViews>
   <sheets>
     <sheet name="seguidores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="38">
   <si>
     <t>seguidores</t>
   </si>
@@ -293,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F55" totalsRowShown="0">
-  <autoFilter ref="A1:F55" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}" name="Tabla3" displayName="Tabla3" ref="A1:F60" totalsRowShown="0">
+  <autoFilter ref="A1:F60" xr:uid="{705D21CA-F02E-43B0-BE11-E923DAD1484B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{61194B37-DF94-4230-B078-9F2850815A72}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{534ACBBA-EA46-4185-9ADA-BB6E85CFD4BF}" name="sucursal"/>
@@ -308,8 +308,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}" name="Tabla7" displayName="Tabla7" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}" name="Tabla7" displayName="Tabla7" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{CAFB3456-6EFE-47E1-93BC-78EB8488053F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A423FA7A-F346-4805-88A5-8D51EC781C1D}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{42C30810-6AB4-4BEC-BC8A-30201B322A08}" name="sucursal"/>
@@ -321,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G62" totalsRowShown="0">
-  <autoFilter ref="A1:G62" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}" name="Tabla4" displayName="Tabla4" ref="A1:G67" totalsRowShown="0">
+  <autoFilter ref="A1:G67" xr:uid="{A51007D8-BCC4-4005-9A65-B9BDC3245DBD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{044FEE12-A08B-4B51-99F4-5E41EF86D35F}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E382312E-8B71-4817-8FB2-1071C946BD49}" name="sucursal"/>
@@ -337,8 +337,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F52" totalsRowShown="0">
-  <autoFilter ref="A1:F52" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}" name="Tabla5" displayName="Tabla5" ref="A1:F57" totalsRowShown="0">
+  <autoFilter ref="A1:F57" xr:uid="{782EFE74-DDFD-42E9-9AE9-1415DB25E84D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ECEAB683-9728-463C-AFC7-FAC9BC119F18}" name="restaurante"/>
     <tableColumn id="2" xr3:uid="{E19E39BD-8287-47C6-8491-ECF51CACC2D6}" name="sucursal"/>
@@ -1218,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8E05E2-E3FE-4964-BE6A-F9503B360B35}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1654,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463F24F8-171B-4993-B13B-5AF26369FC75}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2779,6 +2779,106 @@
         <v>0.12083333333333333</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.81597222222222221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>2025</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.79236111111111107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>2025</v>
+      </c>
+      <c r="E59" s="12">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>2025</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.1701388888888889</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2790,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3479E25A-D2BE-4554-9735-0696B5B480C0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2914,6 +3014,76 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2924,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA80884-1E66-4CC6-A542-5BC46E1332B9}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4370,6 +4540,121 @@
         <v>412.32</v>
       </c>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>2025</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63">
+        <v>179</v>
+      </c>
+      <c r="F63" s="13">
+        <v>92782.96</v>
+      </c>
+      <c r="G63" s="13">
+        <v>518.34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>2025</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>36</v>
+      </c>
+      <c r="F64" s="13">
+        <v>15506</v>
+      </c>
+      <c r="G64" s="13">
+        <v>430.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>2025</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65">
+        <v>27</v>
+      </c>
+      <c r="F65" s="13">
+        <v>9902.59</v>
+      </c>
+      <c r="G65" s="13">
+        <v>366.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>2025</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66">
+        <v>337</v>
+      </c>
+      <c r="F66" s="13">
+        <v>144140.29</v>
+      </c>
+      <c r="G66" s="13">
+        <v>446.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>2025</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67">
+        <v>351</v>
+      </c>
+      <c r="F67" s="13">
+        <v>141565.62</v>
+      </c>
+      <c r="G67" s="13">
+        <v>403.32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4381,10 +4666,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAFD231-D17B-4E25-A892-E551D809F707}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5432,6 +5717,106 @@
       </c>
       <c r="F52">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +5832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A242008-E132-45B9-A1E8-6146FA20360A}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
